--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesign" sheetId="3" r:id="rId1"/>
@@ -13091,8 +13091,8 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13106,10 +13106,12 @@
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -13147,16 +13149,16 @@
         <v>65</v>
       </c>
       <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
-        <v>68</v>
-      </c>
       <c r="P1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
         <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>70</v>
       </c>
       <c r="R1" t="s">
         <v>58</v>
@@ -13166,7 +13168,7 @@
       </c>
       <c r="T1" t="str">
         <f>U25</f>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -13204,20 +13206,20 @@
         <v>1</v>
       </c>
       <c r="N2">
+        <f>IFERROR(MINUTE(B2),-1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
         <f>IFERROR(HOUR(B2),-1)</f>
         <v>1</v>
       </c>
-      <c r="O2">
-        <f>IFERROR(MINUTE(B2),-1)</f>
-        <v>0</v>
-      </c>
       <c r="P2">
+        <f>IFERROR(MINUTE(C2),-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <f>IFERROR(HOUR(C2),-1)</f>
         <v>5</v>
-      </c>
-      <c r="Q2">
-        <f>IFERROR(MINUTE(C2),-1)</f>
-        <v>0</v>
       </c>
       <c r="R2">
         <f>D2</f>
@@ -13229,11 +13231,11 @@
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE(N2,", ",O2,", ",P2,", ",Q2,", ",R2,", ",S2,", ")</f>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, </v>
       </c>
       <c r="U2" t="str">
         <f>CONCATENATE(U1,T2)</f>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, </v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -13271,19 +13273,19 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N23" si="0">IFERROR(HOUR(B3),-1)</f>
+        <f t="shared" ref="N3:N25" si="0">IFERROR(MINUTE(B3),-1)</f>
         <v>-1</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O23" si="1">IFERROR(MINUTE(B3),-1)</f>
+        <f t="shared" ref="O3:O25" si="1">IFERROR(HOUR(B3),-1)</f>
         <v>-1</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P23" si="2">IFERROR(HOUR(C3),-1)</f>
+        <f t="shared" ref="P3:P25" si="2">IFERROR(MINUTE(C3),-1)</f>
         <v>-1</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q23" si="3">IFERROR(MINUTE(C3),-1)</f>
+        <f t="shared" ref="Q3:Q25" si="3">IFERROR(HOUR(C3),-1)</f>
         <v>-1</v>
       </c>
       <c r="R3">
@@ -13300,7 +13302,7 @@
       </c>
       <c r="U3" t="str">
         <f t="shared" ref="U3:U23" si="7">CONCATENATE(U2,T3)</f>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -13367,7 +13369,7 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -13434,7 +13436,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -13501,7 +13503,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -13568,7 +13570,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -13635,7 +13637,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -13702,7 +13704,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -13769,7 +13771,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -13836,7 +13838,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -13903,7 +13905,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -13970,7 +13972,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -14037,7 +14039,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -14104,7 +14106,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -14171,7 +14173,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -14238,7 +14240,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -14305,7 +14307,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -14372,7 +14374,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -14439,7 +14441,7 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -14506,7 +14508,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -14573,7 +14575,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -14640,7 +14642,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -14678,27 +14680,27 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N25" si="8">IFERROR(HOUR(B24),-1)</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O25" si="9">IFERROR(MINUTE(B24),-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="P24">
-        <f t="shared" ref="P24:P25" si="10">IFERROR(HOUR(C24),-1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="Q24">
-        <f t="shared" ref="Q24:Q25" si="11">IFERROR(MINUTE(C24),-1)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="R24">
-        <f t="shared" ref="R24:R25" si="12">D24</f>
+        <f t="shared" ref="R24:R25" si="8">D24</f>
         <v>1</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S24:S25" si="13">BIN2DEC(CONCATENATE(E24,F24,G24,H24,I24,J24,K24))</f>
+        <f t="shared" ref="S24:S25" si="9">BIN2DEC(CONCATENATE(E24,F24,G24,H24,I24,J24,K24))</f>
         <v>127</v>
       </c>
       <c r="T24" t="str">
@@ -14706,8 +14708,8 @@
         <v xml:space="preserve">-1, -1, -1, -1, 1, 127, </v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" ref="U24:U25" si="14">CONCATENATE(U23,T24)</f>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <f t="shared" ref="U24:U25" si="10">CONCATENATE(U23,T24)</f>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -14745,27 +14747,27 @@
         <v>1</v>
       </c>
       <c r="N25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="13"/>
         <v>127</v>
       </c>
       <c r="T25" t="str">
@@ -14773,8 +14775,8 @@
         <v xml:space="preserve">-1, -1, -1, -1, 1, 127, </v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
   </sheetData>
@@ -14791,7 +14793,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14831,7 +14833,7 @@
         <v>-390</v>
       </c>
       <c r="H2" t="str">
-        <f>DEC2HEX(G2)</f>
+        <f>DEC2HEX(G2,4)</f>
         <v>FFFFFFFE7A</v>
       </c>
       <c r="I2" t="str">
@@ -14904,22 +14906,30 @@
         <v>78</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
       </c>
       <c r="E6">
         <f>MOD(C6,256)</f>
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="F6">
         <f>_xlfn.FLOOR.MATH(C6/256)</f>
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H6" t="str">
+        <f>DEC2HEX(C6,4)</f>
+        <v>FFFFFFFFF6</v>
+      </c>
+      <c r="I6" t="str">
+        <f>RIGHT(H6,4)</f>
+        <v>FFF6</v>
       </c>
       <c r="J6" t="str">
-        <f>CONCATENATE(E6,", ",F6,", ")</f>
-        <v xml:space="preserve">10, 0, </v>
+        <f>CONCATENATE("0x",RIGHT(I6,2),", 0x",LEFT(I6,2),", ")</f>
+        <v xml:space="preserve">0xF6, 0xFF, </v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -15104,8 +15114,8 @@
         <v>128</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f>CONCATENATE(E16,", ",F16,", ",G16,", ")</f>
-        <v xml:space="preserve">1, 81, 128, </v>
+        <f>CONCATENATE(G16,", ",F16,", ",E16,", ")</f>
+        <v xml:space="preserve">128, 81, 1, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -15130,6 +15140,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15140,7 +15151,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -15155,7 +15166,7 @@
       </c>
       <c r="C1" t="str">
         <f>CONCATENATE("int EE_Settings[]={",E24,"};")</f>
-        <v>int EE_Settings[]={0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
+        <v>int EE_Settings[]={0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15232,7 +15243,7 @@
       </c>
       <c r="B8" t="str">
         <f>Settings!J6</f>
-        <v xml:space="preserve">10, 0, </v>
+        <v xml:space="preserve">0xF6, 0xFF, </v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -15240,7 +15251,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, </v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -15257,7 +15268,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, </v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -15274,7 +15285,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, </v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15291,7 +15302,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, </v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15308,7 +15319,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, </v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -15325,7 +15336,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, </v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15342,7 +15353,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, </v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15359,7 +15370,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, </v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15376,7 +15387,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15393,7 +15404,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, </v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15402,7 +15413,7 @@
       </c>
       <c r="B18" t="str">
         <f>Settings!J16</f>
-        <v xml:space="preserve">1, 81, 128, </v>
+        <v xml:space="preserve">128, 81, 1, </v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -15410,7 +15421,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, </v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -15427,7 +15438,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, 0, 5, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, </v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -15444,7 +15455,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -15461,7 +15472,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15478,7 +15489,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, </v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15487,7 +15498,7 @@
       </c>
       <c r="B23" t="str">
         <f>EVENTS!T1</f>
-        <v xml:space="preserve">1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -15495,7 +15506,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15512,7 +15523,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 10, 0, 60, 40, 4, 8, 192, 8, 42, 5, 1, 1, 81, 128, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 1, 0, 5, 0, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesign" sheetId="3" r:id="rId1"/>
@@ -907,7 +907,7 @@
   <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7022,8 +7022,8 @@
   </sheetPr>
   <dimension ref="A2:R164"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A15" sqref="A14:A164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13091,8 +13091,8 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesign" sheetId="3" r:id="rId1"/>
@@ -7022,8 +7022,8 @@
   </sheetPr>
   <dimension ref="A2:R164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14793,7 +14793,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="C1" t="str">
         <f>CONCATENATE("int EE_Settings[]={",E24,"};")</f>
-        <v>int EE_Settings[]={0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
+        <v>int EE_Settings[]={0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="B22" t="str">
         <f>STATE_BREAKS!G18</f>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -15489,7 +15489,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15578,8 +15578,8 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15618,16 +15618,16 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <f>B2+C2</f>
-        <v>8</v>
+        <f>B2+C2-1</f>
+        <v>7</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(D2,", ")</f>
-        <v xml:space="preserve">8, </v>
+        <v xml:space="preserve">7, </v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(G1,F2)</f>
-        <v xml:space="preserve">8, </v>
+        <v xml:space="preserve">7, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15636,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>D2</f>
+        <f>D2+1</f>
         <v>8</v>
       </c>
       <c r="C3">
@@ -15644,16 +15644,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">B3+C3</f>
-        <v>9</v>
+        <f t="shared" ref="D3:D17" si="0">B3+C3-1</f>
+        <v>8</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F14" si="1">CONCATENATE(D3,", ")</f>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G14" si="2">CONCATENATE(G2,F3)</f>
-        <v xml:space="preserve">8, 9, </v>
+        <v xml:space="preserve">7, 8, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15662,7 +15662,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B14" si="4">D3</f>
+        <f t="shared" ref="B4:B18" si="4">D3+1</f>
         <v>9</v>
       </c>
       <c r="C4">
@@ -15671,15 +15671,15 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15697,15 +15697,15 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15723,15 +15723,15 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15749,15 +15749,15 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15775,15 +15775,15 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15801,15 +15801,15 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -15827,15 +15827,15 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15853,15 +15853,15 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -15879,15 +15879,15 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15905,15 +15905,15 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -15931,15 +15931,15 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">9, </v>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -15948,7 +15948,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B18" si="5">D14</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C15">
@@ -15956,16 +15956,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D18" si="6">B15+C15</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ref="F15:F18" si="7">CONCATENATE(D15,", ")</f>
-        <v xml:space="preserve">9, </v>
+        <f t="shared" ref="F15:F18" si="5">CONCATENATE(D15,", ")</f>
+        <v xml:space="preserve">8, </v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ref="G15:G18" si="8">CONCATENATE(G14,F15)</f>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <f t="shared" ref="G15:G18" si="6">CONCATENATE(G14,F15)</f>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -15974,7 +15974,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C16">
@@ -15982,16 +15982,16 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">9, </v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -16000,7 +16000,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C17">
@@ -16008,16 +16008,16 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">9, </v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -16026,7 +16026,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C18">
@@ -16034,16 +16034,16 @@
         <v>151</v>
       </c>
       <c r="D18">
+        <f t="shared" ref="D15:D18" si="7">B18+C18</f>
+        <v>160</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">160, </v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">160, </v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 9, 160, </v>
+        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
     </row>
   </sheetData>

--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesign" sheetId="3" r:id="rId1"/>
@@ -14792,8 +14792,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14818,7 +14818,7 @@
         <v>-1</v>
       </c>
       <c r="C2" s="20">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E2">
         <f>HOUR(C2)</f>
@@ -14826,23 +14826,23 @@
       </c>
       <c r="F2">
         <f>MINUTE(C2)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>(F2+E2*60)*B2</f>
-        <v>-390</v>
+        <v>-360</v>
       </c>
       <c r="H2" t="str">
         <f>DEC2HEX(G2,4)</f>
-        <v>FFFFFFFE7A</v>
+        <v>FFFFFFFE98</v>
       </c>
       <c r="I2" t="str">
         <f>RIGHT(H2,4)</f>
-        <v>FE7A</v>
+        <v>FE98</v>
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE("0x",RIGHT(I2,2),", 0x",LEFT(I2,2),", ")</f>
-        <v xml:space="preserve">0x7A, 0xFE, </v>
+        <v xml:space="preserve">0x98, 0xFE, </v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="C1" t="str">
         <f>CONCATENATE("int EE_Settings[]={",E24,"};")</f>
-        <v>int EE_Settings[]={0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
+        <v>int EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="B4" t="str">
         <f>Settings!J2</f>
-        <v xml:space="preserve">0x7A, 0xFE, </v>
+        <v xml:space="preserve">0x98, 0xFE, </v>
       </c>
       <c r="C4">
         <f>LEN(B4)-LEN(SUBSTITUTE(B4,",",""))</f>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="E4" t="str">
         <f>CONCATENATE(E3,B4)</f>
-        <v xml:space="preserve">0x7A, 0xFE, </v>
+        <v xml:space="preserve">0x98, 0xFE, </v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E24" si="1">CONCATENATE(E4,B5)</f>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, </v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, </v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, </v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, </v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -15268,7 +15268,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, </v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, </v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, </v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, </v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -15336,7 +15336,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, </v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15353,7 +15353,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, </v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, </v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15387,7 +15387,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, </v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, </v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, </v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x7A, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -15578,7 +15578,7 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -16034,7 +16034,7 @@
         <v>151</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D15:D18" si="7">B18+C18</f>
+        <f t="shared" ref="D18" si="7">B18+C18</f>
         <v>160</v>
       </c>
       <c r="F18" t="str">

--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesign" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>A5</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Complete code</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>XC8</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +938,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>States_Design!D5</f>
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <f>IF(IFERROR(HLOOKUP("Audio",States_Design!$4:5,ROW(),FALSE),0)=1,1,0)</f>
@@ -970,7 +976,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>States_Design!D6</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <f>IF(IFERROR(HLOOKUP("Audio",States_Design!$4:6,ROW(),FALSE),0)=1,1,0)</f>
@@ -1046,7 +1052,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>States_Design!D8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f>IF(IFERROR(HLOOKUP("Audio",States_Design!$4:8,ROW(),FALSE),0)=1,1,0)</f>
@@ -7023,7 +7029,7 @@
   <dimension ref="A2:R164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7175,10 +7181,10 @@
         <v>19</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>24</v>
@@ -7196,12 +7202,11 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f>78+4</f>
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3">
         <f>C5+D5</f>
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -7210,10 +7215,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8">
         <v>0</v>
@@ -7228,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="7">
         <v>1</v>
@@ -7237,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="4">
         <v>1</v>
@@ -7253,26 +7258,26 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ref="C6:C69" si="0">IF(A6=A5,E5,0)</f>
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ref="E6:E7" si="1">C6+D6</f>
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
@@ -7281,19 +7286,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="7">
+        <v>2</v>
+      </c>
+      <c r="P6" s="8">
         <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -7312,50 +7317,50 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
       <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
       <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="4">
         <v>1</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
       </c>
       <c r="R7" s="4">
         <v>2</v>
@@ -7363,7 +7368,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
@@ -7371,14 +7376,14 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ref="E8" si="3">C8+D8</f>
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -7422,7 +7427,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
@@ -7430,14 +7435,14 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ref="E9" si="4">C9+D9</f>
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -7481,7 +7486,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
@@ -7489,14 +7494,14 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>21</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ref="E10:E12" si="5">C10+D10</f>
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -7540,7 +7545,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
@@ -7548,14 +7553,14 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -7599,7 +7604,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <f t="shared" si="2"/>
@@ -7607,14 +7612,14 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -7666,14 +7671,14 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ref="E13:E14" si="6">C13+D13</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -13092,7 +13097,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14647,7 +14652,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="17">
         <v>-1</v>
@@ -14714,7 +14719,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="17">
         <v>-1</v>
@@ -14792,8 +14797,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15151,8 +15156,8 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15164,9 +15169,21 @@
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
       <c r="C1" t="str">
         <f>CONCATENATE("int EE_Settings[]={",E24,"};")</f>
-        <v>int EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
+        <v>int EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("INT8 EE_Settings[]={",E24,"};")</f>
+        <v>INT8 EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15292,17 +15309,16 @@
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="str">
-        <f>Settings!J9</f>
-        <v xml:space="preserve">4, </v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, </v>
+        <v>0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15319,7 +15335,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, </v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -15336,7 +15352,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, </v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15353,7 +15369,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, </v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15370,7 +15386,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, </v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15387,7 +15403,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15404,7 +15420,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, </v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15421,7 +15437,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, </v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -15438,7 +15454,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, </v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -15455,7 +15471,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -15472,7 +15488,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15481,7 +15497,7 @@
       </c>
       <c r="B22" t="str">
         <f>STATE_BREAKS!G18</f>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -15489,7 +15505,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15506,7 +15522,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15515,7 +15531,7 @@
       </c>
       <c r="B24" t="str">
         <f>STATES!AR162</f>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
       <c r="C24">
         <f>LEN(B24)-LEN(SUBSTITUTE(B24,",",""))</f>
@@ -15523,13 +15539,13 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>SUM(C4:C24)</f>
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -15615,19 +15631,19 @@
       </c>
       <c r="C2">
         <f>COUNTIF(States_Design!A:A,A2)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f>B2+C2-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(D2,", ")</f>
-        <v xml:space="preserve">7, </v>
+        <v xml:space="preserve">2, </v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE(G1,F2)</f>
-        <v xml:space="preserve">7, </v>
+        <v xml:space="preserve">2, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15637,11 +15653,11 @@
       </c>
       <c r="B3">
         <f>D2+1</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f>COUNTIF(States_Design!A:A,A3)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D17" si="0">B3+C3-1</f>
@@ -15653,7 +15669,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G14" si="2">CONCATENATE(G2,F3)</f>
-        <v xml:space="preserve">7, 8, </v>
+        <v xml:space="preserve">2, 8, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15679,7 +15695,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15705,7 +15721,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, </v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15731,7 +15747,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15757,7 +15773,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15783,7 +15799,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15809,7 +15825,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -15835,7 +15851,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15861,7 +15877,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -15887,7 +15903,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15913,7 +15929,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -15939,7 +15955,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -15965,7 +15981,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" ref="G15:G18" si="6">CONCATENATE(G14,F15)</f>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -15991,7 +16007,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -16017,7 +16033,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, </v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -16043,7 +16059,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
+        <v xml:space="preserve">2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
     </row>
   </sheetData>
@@ -16058,8 +16074,8 @@
   </sheetPr>
   <dimension ref="A1:AR162"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16357,7 +16373,7 @@
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <f>States_Design!D5</f>
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C3" s="11">
         <f>IF(IFERROR(HLOOKUP(C$2,States_Design!$4:5,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16381,7 +16397,7 @@
       </c>
       <c r="H3" s="11">
         <f>IF(IFERROR(HLOOKUP(H$2,States_Design!$4:5,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11">
         <f>IF(IFERROR(HLOOKUP(I$2,States_Design!$4:5,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16441,7 +16457,7 @@
       </c>
       <c r="X3" s="11">
         <f>IF(IFERROR(HLOOKUP(G$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="11">
         <f>IF(IFERROR(HLOOKUP(H$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16465,7 +16481,7 @@
       </c>
       <c r="AD3" s="11">
         <f>IF(IFERROR(HLOOKUP(M$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="11">
         <f>IF(IFERROR(HLOOKUP(N$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16477,7 +16493,7 @@
       </c>
       <c r="AG3" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="11">
         <f>IF(IFERROR(HLOOKUP(Q$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16489,7 +16505,7 @@
       </c>
       <c r="AK3" s="11" t="str">
         <f t="shared" ref="AK3:AK32" si="16">CONCATENATE("0x",BIN2HEX(CONCATENATE(C3,D3,E3,F3,G3,H3,I3,J3),2))</f>
-        <v>0x20</v>
+        <v>0x24</v>
       </c>
       <c r="AL3" s="11" t="str">
         <f t="shared" ref="AL3:AL32" si="17">CONCATENATE("0x",BIN2HEX(CONCATENATE(K3,L3,M3,N3,O3,P3,Q3,R3),2))</f>
@@ -16497,25 +16513,25 @@
       </c>
       <c r="AN3" s="11" t="str">
         <f t="shared" ref="AN3:AN32" si="18">CONCATENATE("0x",BIN2HEX(CONCATENATE(T3,U3,V3,W3,X3,Y3,Z3,AA3),2))</f>
-        <v>0x01</v>
+        <v>0x09</v>
       </c>
       <c r="AO3" s="11" t="str">
         <f t="shared" ref="AO3:AO32" si="19">CONCATENATE("0x",BIN2HEX(CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3),2))</f>
-        <v>0x00</v>
+        <v>0x24</v>
       </c>
       <c r="AQ3" s="11" t="str">
         <f>CONCATENATE(A3,", ",AK3,", ",AL3,", ",AN3,", ",AO3,", ")</f>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, </v>
       </c>
       <c r="AR3" s="11" t="str">
         <f>CONCATENATE(AT2,AQ3)</f>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, </v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f>States_Design!D6</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11">
         <f>IF(IFERROR(HLOOKUP(C$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16527,11 +16543,11 @@
       </c>
       <c r="E4" s="11">
         <f>IF(IFERROR(HLOOKUP(E$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
         <f>IF(IFERROR(HLOOKUP(F$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11">
         <f>IF(IFERROR(HLOOKUP(G$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16551,11 +16567,11 @@
       </c>
       <c r="K4" s="11">
         <f>IF(IFERROR(HLOOKUP(K$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="11">
         <f>IF(IFERROR(HLOOKUP(L$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="11">
         <f>IF(IFERROR(HLOOKUP(M$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16563,11 +16579,11 @@
       </c>
       <c r="N4" s="11">
         <f>IF(IFERROR(HLOOKUP(N$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16591,7 +16607,7 @@
       </c>
       <c r="V4" s="11">
         <f>IF(IFERROR(HLOOKUP(E$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="11">
         <f>IF(IFERROR(HLOOKUP(F$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16603,7 +16619,7 @@
       </c>
       <c r="Y4" s="11">
         <f>IF(IFERROR(HLOOKUP(H$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="11">
         <f>IF(IFERROR(HLOOKUP(I$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16615,7 +16631,7 @@
       </c>
       <c r="AB4" s="11">
         <f>IF(IFERROR(HLOOKUP(K$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="11">
         <f>IF(IFERROR(HLOOKUP(L$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16627,7 +16643,7 @@
       </c>
       <c r="AE4" s="11">
         <f>IF(IFERROR(HLOOKUP(N$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16647,27 +16663,27 @@
       </c>
       <c r="AK4" s="11" t="str">
         <f t="shared" si="16"/>
-        <v>0x22</v>
+        <v>0x12</v>
       </c>
       <c r="AL4" s="11" t="str">
         <f t="shared" si="17"/>
-        <v>0x90</v>
+        <v>0x48</v>
       </c>
       <c r="AN4" s="11" t="str">
         <f t="shared" si="18"/>
-        <v>0x00</v>
+        <v>0x24</v>
       </c>
       <c r="AO4" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>0x00</v>
+        <v>0x90</v>
       </c>
       <c r="AQ4" s="11" t="str">
         <f t="shared" ref="AQ4:AQ67" si="20">CONCATENATE(A4,", ",AK4,", ",AL4,", ",AN4,", ",AO4,", ")</f>
-        <v xml:space="preserve">3, 0x22, 0x90, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x12, 0x48, 0x24, 0x90, </v>
       </c>
       <c r="AR4" s="11" t="str">
         <f t="shared" ref="AR4:AR32" si="21">CONCATENATE(AR3,AQ4)</f>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, </v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -16697,7 +16713,7 @@
       </c>
       <c r="H5" s="11">
         <f>IF(IFERROR(HLOOKUP(H$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f>IF(IFERROR(HLOOKUP(I$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16705,11 +16721,11 @@
       </c>
       <c r="J5" s="11">
         <f>IF(IFERROR(HLOOKUP(J$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="11">
         <f>IF(IFERROR(HLOOKUP(K$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="11">
         <f>IF(IFERROR(HLOOKUP(L$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16717,11 +16733,11 @@
       </c>
       <c r="M5" s="11">
         <f>IF(IFERROR(HLOOKUP(M$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="11">
         <f>IF(IFERROR(HLOOKUP(N$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16729,7 +16745,7 @@
       </c>
       <c r="P5" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="11">
         <f>IF(IFERROR(HLOOKUP(Q$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16753,7 +16769,7 @@
       </c>
       <c r="W5" s="11">
         <f>IF(IFERROR(HLOOKUP(F$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="11">
         <f>IF(IFERROR(HLOOKUP(G$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16765,7 +16781,7 @@
       </c>
       <c r="Z5" s="11">
         <f>IF(IFERROR(HLOOKUP(I$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="11">
         <f>IF(IFERROR(HLOOKUP(J$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16777,7 +16793,7 @@
       </c>
       <c r="AC5" s="11">
         <f>IF(IFERROR(HLOOKUP(L$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="11">
         <f>IF(IFERROR(HLOOKUP(M$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16789,7 +16805,7 @@
       </c>
       <c r="AF5" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16805,33 +16821,33 @@
       </c>
       <c r="AK5" s="11" t="str">
         <f t="shared" si="16"/>
-        <v>0x0C</v>
+        <v>0x09</v>
       </c>
       <c r="AL5" s="11" t="str">
         <f t="shared" si="17"/>
-        <v>0x90</v>
+        <v>0x24</v>
       </c>
       <c r="AN5" s="11" t="str">
         <f t="shared" si="18"/>
-        <v>0x00</v>
+        <v>0x12</v>
       </c>
       <c r="AO5" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>0x00</v>
+        <v>0x48</v>
       </c>
       <c r="AQ5" s="11" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">6, 0x0C, 0x90, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x09, 0x24, 0x12, 0x48, </v>
       </c>
       <c r="AR5" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, </v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f>States_Design!D8</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="11">
         <f>IF(IFERROR(HLOOKUP(C$2,States_Design!$4:8,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16979,11 +16995,11 @@
       </c>
       <c r="AQ6" s="11" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">2, 0x04, 0x90, 0x08, 0x00, </v>
+        <v xml:space="preserve">3, 0x04, 0x90, 0x08, 0x00, </v>
       </c>
       <c r="AR6" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, </v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -17141,7 +17157,7 @@
       </c>
       <c r="AR7" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -17199,11 +17215,11 @@
       </c>
       <c r="O8" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:10,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:10,ROW()-1,FALSE),0)=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="11">
         <f>IF(IFERROR(HLOOKUP(Q$2,States_Design!$4:10,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -17283,7 +17299,7 @@
       </c>
       <c r="AL8" s="11" t="str">
         <f t="shared" si="17"/>
-        <v>0x28</v>
+        <v>0x24</v>
       </c>
       <c r="AN8" s="11" t="str">
         <f t="shared" si="18"/>
@@ -17295,11 +17311,11 @@
       </c>
       <c r="AQ8" s="11" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">21, 0x24, 0x28, 0x00, 0x00, </v>
+        <v xml:space="preserve">21, 0x24, 0x24, 0x00, 0x00, </v>
       </c>
       <c r="AR8" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -17457,7 +17473,7 @@
       </c>
       <c r="AR9" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, </v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -17615,7 +17631,7 @@
       </c>
       <c r="AR10" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -17773,7 +17789,7 @@
       </c>
       <c r="AR11" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, </v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -17931,7 +17947,7 @@
       </c>
       <c r="AR12" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -18089,7 +18105,7 @@
       </c>
       <c r="AR13" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -18247,7 +18263,7 @@
       </c>
       <c r="AR14" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -18405,7 +18421,7 @@
       </c>
       <c r="AR15" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -18563,7 +18579,7 @@
       </c>
       <c r="AR16" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -18721,7 +18737,7 @@
       </c>
       <c r="AR17" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -18879,7 +18895,7 @@
       </c>
       <c r="AR18" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -19037,7 +19053,7 @@
       </c>
       <c r="AR19" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -19195,7 +19211,7 @@
       </c>
       <c r="AR20" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
@@ -19353,7 +19369,7 @@
       </c>
       <c r="AR21" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -19511,7 +19527,7 @@
       </c>
       <c r="AR22" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
@@ -19669,7 +19685,7 @@
       </c>
       <c r="AR23" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
@@ -19827,7 +19843,7 @@
       </c>
       <c r="AR24" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -19985,7 +20001,7 @@
       </c>
       <c r="AR25" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -20143,7 +20159,7 @@
       </c>
       <c r="AR26" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
@@ -20301,7 +20317,7 @@
       </c>
       <c r="AR27" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
@@ -20459,7 +20475,7 @@
       </c>
       <c r="AR28" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -20617,7 +20633,7 @@
       </c>
       <c r="AR29" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -20775,7 +20791,7 @@
       </c>
       <c r="AR30" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
@@ -20933,7 +20949,7 @@
       </c>
       <c r="AR31" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
@@ -21091,7 +21107,7 @@
       </c>
       <c r="AR32" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
@@ -21249,7 +21265,7 @@
       </c>
       <c r="AR33" s="11" t="str">
         <f t="shared" ref="AR33:AR96" si="26">CONCATENATE(AR32,AQ33)</f>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -21407,7 +21423,7 @@
       </c>
       <c r="AR34" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -21565,7 +21581,7 @@
       </c>
       <c r="AR35" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
@@ -21723,7 +21739,7 @@
       </c>
       <c r="AR36" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
@@ -21881,7 +21897,7 @@
       </c>
       <c r="AR37" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
@@ -22039,7 +22055,7 @@
       </c>
       <c r="AR38" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
@@ -22197,7 +22213,7 @@
       </c>
       <c r="AR39" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
@@ -22355,7 +22371,7 @@
       </c>
       <c r="AR40" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -22513,7 +22529,7 @@
       </c>
       <c r="AR41" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
@@ -22671,7 +22687,7 @@
       </c>
       <c r="AR42" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
@@ -22829,7 +22845,7 @@
       </c>
       <c r="AR43" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
@@ -22987,7 +23003,7 @@
       </c>
       <c r="AR44" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
@@ -23145,7 +23161,7 @@
       </c>
       <c r="AR45" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
@@ -23303,7 +23319,7 @@
       </c>
       <c r="AR46" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
@@ -23461,7 +23477,7 @@
       </c>
       <c r="AR47" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
@@ -23619,7 +23635,7 @@
       </c>
       <c r="AR48" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
@@ -23777,7 +23793,7 @@
       </c>
       <c r="AR49" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
@@ -23935,7 +23951,7 @@
       </c>
       <c r="AR50" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
@@ -24093,7 +24109,7 @@
       </c>
       <c r="AR51" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
@@ -24251,7 +24267,7 @@
       </c>
       <c r="AR52" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
@@ -24409,7 +24425,7 @@
       </c>
       <c r="AR53" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
@@ -24567,7 +24583,7 @@
       </c>
       <c r="AR54" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
@@ -24725,7 +24741,7 @@
       </c>
       <c r="AR55" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
@@ -24883,7 +24899,7 @@
       </c>
       <c r="AR56" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
@@ -25041,7 +25057,7 @@
       </c>
       <c r="AR57" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
@@ -25199,7 +25215,7 @@
       </c>
       <c r="AR58" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
@@ -25357,7 +25373,7 @@
       </c>
       <c r="AR59" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
@@ -25515,7 +25531,7 @@
       </c>
       <c r="AR60" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
@@ -25673,7 +25689,7 @@
       </c>
       <c r="AR61" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
@@ -25831,7 +25847,7 @@
       </c>
       <c r="AR62" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
@@ -25989,7 +26005,7 @@
       </c>
       <c r="AR63" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
@@ -26147,7 +26163,7 @@
       </c>
       <c r="AR64" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
@@ -26305,7 +26321,7 @@
       </c>
       <c r="AR65" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
@@ -26463,7 +26479,7 @@
       </c>
       <c r="AR66" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
@@ -26621,7 +26637,7 @@
       </c>
       <c r="AR67" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
@@ -26779,7 +26795,7 @@
       </c>
       <c r="AR68" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
@@ -26937,7 +26953,7 @@
       </c>
       <c r="AR69" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
@@ -27095,7 +27111,7 @@
       </c>
       <c r="AR70" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
@@ -27253,7 +27269,7 @@
       </c>
       <c r="AR71" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
@@ -27411,7 +27427,7 @@
       </c>
       <c r="AR72" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
@@ -27569,7 +27585,7 @@
       </c>
       <c r="AR73" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
@@ -27727,7 +27743,7 @@
       </c>
       <c r="AR74" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
@@ -27885,7 +27901,7 @@
       </c>
       <c r="AR75" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
@@ -28043,7 +28059,7 @@
       </c>
       <c r="AR76" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
@@ -28201,7 +28217,7 @@
       </c>
       <c r="AR77" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
@@ -28359,7 +28375,7 @@
       </c>
       <c r="AR78" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
@@ -28517,7 +28533,7 @@
       </c>
       <c r="AR79" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
@@ -28675,7 +28691,7 @@
       </c>
       <c r="AR80" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
@@ -28833,7 +28849,7 @@
       </c>
       <c r="AR81" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
@@ -28991,7 +29007,7 @@
       </c>
       <c r="AR82" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
@@ -29149,7 +29165,7 @@
       </c>
       <c r="AR83" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
@@ -29307,7 +29323,7 @@
       </c>
       <c r="AR84" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
@@ -29465,7 +29481,7 @@
       </c>
       <c r="AR85" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
@@ -29623,7 +29639,7 @@
       </c>
       <c r="AR86" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
@@ -29781,7 +29797,7 @@
       </c>
       <c r="AR87" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
@@ -29939,7 +29955,7 @@
       </c>
       <c r="AR88" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -30097,7 +30113,7 @@
       </c>
       <c r="AR89" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
@@ -30255,7 +30271,7 @@
       </c>
       <c r="AR90" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
@@ -30413,7 +30429,7 @@
       </c>
       <c r="AR91" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
@@ -30571,7 +30587,7 @@
       </c>
       <c r="AR92" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
@@ -30729,7 +30745,7 @@
       </c>
       <c r="AR93" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
@@ -30887,7 +30903,7 @@
       </c>
       <c r="AR94" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
@@ -31045,7 +31061,7 @@
       </c>
       <c r="AR95" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
@@ -31203,7 +31219,7 @@
       </c>
       <c r="AR96" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
@@ -31361,7 +31377,7 @@
       </c>
       <c r="AR97" s="11" t="str">
         <f t="shared" ref="AR97:AR160" si="32">CONCATENATE(AR96,AQ97)</f>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
@@ -31519,7 +31535,7 @@
       </c>
       <c r="AR98" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.25">
@@ -31677,7 +31693,7 @@
       </c>
       <c r="AR99" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
@@ -31835,7 +31851,7 @@
       </c>
       <c r="AR100" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
@@ -31993,7 +32009,7 @@
       </c>
       <c r="AR101" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
@@ -32151,7 +32167,7 @@
       </c>
       <c r="AR102" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
@@ -32309,7 +32325,7 @@
       </c>
       <c r="AR103" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
@@ -32467,7 +32483,7 @@
       </c>
       <c r="AR104" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
@@ -32625,7 +32641,7 @@
       </c>
       <c r="AR105" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
@@ -32783,7 +32799,7 @@
       </c>
       <c r="AR106" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
@@ -32941,7 +32957,7 @@
       </c>
       <c r="AR107" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
@@ -33099,7 +33115,7 @@
       </c>
       <c r="AR108" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
@@ -33257,7 +33273,7 @@
       </c>
       <c r="AR109" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
@@ -33415,7 +33431,7 @@
       </c>
       <c r="AR110" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
@@ -33573,7 +33589,7 @@
       </c>
       <c r="AR111" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
@@ -33731,7 +33747,7 @@
       </c>
       <c r="AR112" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
@@ -33889,7 +33905,7 @@
       </c>
       <c r="AR113" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
@@ -34047,7 +34063,7 @@
       </c>
       <c r="AR114" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
@@ -34205,7 +34221,7 @@
       </c>
       <c r="AR115" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
@@ -34363,7 +34379,7 @@
       </c>
       <c r="AR116" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
@@ -34521,7 +34537,7 @@
       </c>
       <c r="AR117" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
@@ -34679,7 +34695,7 @@
       </c>
       <c r="AR118" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.25">
@@ -34837,7 +34853,7 @@
       </c>
       <c r="AR119" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
@@ -34995,7 +35011,7 @@
       </c>
       <c r="AR120" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
@@ -35153,7 +35169,7 @@
       </c>
       <c r="AR121" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
@@ -35311,7 +35327,7 @@
       </c>
       <c r="AR122" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
@@ -35469,7 +35485,7 @@
       </c>
       <c r="AR123" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.25">
@@ -35627,7 +35643,7 @@
       </c>
       <c r="AR124" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.25">
@@ -35785,7 +35801,7 @@
       </c>
       <c r="AR125" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.25">
@@ -35943,7 +35959,7 @@
       </c>
       <c r="AR126" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.25">
@@ -36101,7 +36117,7 @@
       </c>
       <c r="AR127" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.25">
@@ -36259,7 +36275,7 @@
       </c>
       <c r="AR128" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.25">
@@ -36417,7 +36433,7 @@
       </c>
       <c r="AR129" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.25">
@@ -36575,7 +36591,7 @@
       </c>
       <c r="AR130" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.25">
@@ -36733,7 +36749,7 @@
       </c>
       <c r="AR131" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.25">
@@ -36891,7 +36907,7 @@
       </c>
       <c r="AR132" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.25">
@@ -37049,7 +37065,7 @@
       </c>
       <c r="AR133" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.25">
@@ -37207,7 +37223,7 @@
       </c>
       <c r="AR134" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.25">
@@ -37365,7 +37381,7 @@
       </c>
       <c r="AR135" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.25">
@@ -37523,7 +37539,7 @@
       </c>
       <c r="AR136" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.25">
@@ -37681,7 +37697,7 @@
       </c>
       <c r="AR137" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
@@ -37839,7 +37855,7 @@
       </c>
       <c r="AR138" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.25">
@@ -37997,7 +38013,7 @@
       </c>
       <c r="AR139" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
@@ -38155,7 +38171,7 @@
       </c>
       <c r="AR140" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.25">
@@ -38313,7 +38329,7 @@
       </c>
       <c r="AR141" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.25">
@@ -38471,7 +38487,7 @@
       </c>
       <c r="AR142" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.25">
@@ -38629,7 +38645,7 @@
       </c>
       <c r="AR143" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.25">
@@ -38787,7 +38803,7 @@
       </c>
       <c r="AR144" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
@@ -38945,7 +38961,7 @@
       </c>
       <c r="AR145" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.25">
@@ -39103,7 +39119,7 @@
       </c>
       <c r="AR146" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
@@ -39261,7 +39277,7 @@
       </c>
       <c r="AR147" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
@@ -39419,7 +39435,7 @@
       </c>
       <c r="AR148" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.25">
@@ -39577,7 +39593,7 @@
       </c>
       <c r="AR149" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.25">
@@ -39735,7 +39751,7 @@
       </c>
       <c r="AR150" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.25">
@@ -39893,7 +39909,7 @@
       </c>
       <c r="AR151" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.25">
@@ -40051,7 +40067,7 @@
       </c>
       <c r="AR152" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.25">
@@ -40209,7 +40225,7 @@
       </c>
       <c r="AR153" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.25">
@@ -40367,7 +40383,7 @@
       </c>
       <c r="AR154" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.25">
@@ -40525,7 +40541,7 @@
       </c>
       <c r="AR155" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.25">
@@ -40683,7 +40699,7 @@
       </c>
       <c r="AR156" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.25">
@@ -40841,7 +40857,7 @@
       </c>
       <c r="AR157" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.25">
@@ -40999,7 +41015,7 @@
       </c>
       <c r="AR158" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.25">
@@ -41157,7 +41173,7 @@
       </c>
       <c r="AR159" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.25">
@@ -41315,7 +41331,7 @@
       </c>
       <c r="AR160" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.25">
@@ -41473,7 +41489,7 @@
       </c>
       <c r="AR161" s="11" t="str">
         <f t="shared" ref="AR161:AR162" si="38">CONCATENATE(AR160,AQ161)</f>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.25">
@@ -41631,7 +41647,7 @@
       </c>
       <c r="AR162" s="11" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">82, 0x20, 0x90, 0x01, 0x00, 3, 0x22, 0x90, 0x00, 0x00, 6, 0x0C, 0x90, 0x00, 0x00, 2, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x28, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
   </sheetData>

--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -938,7 +938,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>States_Design!D5</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <f>IF(IFERROR(HLOOKUP("Audio",States_Design!$4:5,ROW(),FALSE),0)=1,1,0)</f>
@@ -976,7 +976,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>States_Design!D6</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f>IF(IFERROR(HLOOKUP("Audio",States_Design!$4:6,ROW(),FALSE),0)=1,1,0)</f>
@@ -1014,7 +1014,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>States_Design!D7</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>IF(IFERROR(HLOOKUP("Audio",States_Design!$4:7,ROW(),FALSE),0)=1,1,0)</f>
@@ -7029,7 +7029,7 @@
   <dimension ref="A2:R164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7202,47 +7202,47 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
         <f>C5+D5</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <v>1</v>
       </c>
       <c r="P5" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4">
         <v>1</v>
@@ -7258,50 +7258,50 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ref="C6:C69" si="0">IF(A6=A5,E5,0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ref="E6:E7" si="1">C6+D6</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="8">
         <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="8">
         <v>1</v>
       </c>
       <c r="Q6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="4">
         <v>1</v>
@@ -7317,47 +7317,47 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
       </c>
       <c r="O7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <v>1</v>
@@ -13097,7 +13097,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="T1" t="str">
         <f>U25</f>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -13181,10 +13181,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="17">
-        <v>4.1666666666666664E-2</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="17">
-        <v>0.20833333333333334</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -13212,19 +13212,19 @@
       </c>
       <c r="N2">
         <f>IFERROR(MINUTE(B2),-1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O2">
         <f>IFERROR(HOUR(B2),-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P2">
         <f>IFERROR(MINUTE(C2),-1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q2">
         <f>IFERROR(HOUR(C2),-1)</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="R2">
         <f>D2</f>
@@ -13236,11 +13236,11 @@
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE(N2,", ",O2,", ",P2,", ",Q2,", ",R2,", ",S2,", ")</f>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, </v>
       </c>
       <c r="U2" t="str">
         <f>CONCATENATE(U1,T2)</f>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="U3" t="str">
         <f t="shared" ref="U3:U23" si="7">CONCATENATE(U2,T3)</f>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -13374,7 +13374,7 @@
       </c>
       <c r="U4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="U6" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="U7" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="U8" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="U10" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="U11" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="U12" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="U13" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="U14" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="U15" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="U16" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="U17" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -14312,7 +14312,7 @@
       </c>
       <c r="U18" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="U19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="U20" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="U21" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="U22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -14647,7 +14647,7 @@
       </c>
       <c r="U23" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="U24" t="str">
         <f t="shared" ref="U24:U25" si="10">CONCATENATE(U23,T24)</f>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="U25" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
   </sheetData>
@@ -14798,7 +14798,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15174,7 +15174,7 @@
       </c>
       <c r="C1" t="str">
         <f>CONCATENATE("int EE_Settings[]={",E24,"};")</f>
-        <v>int EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
+        <v>int EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="C2" t="str">
         <f>CONCATENATE("INT8 EE_Settings[]={",E24,"};")</f>
-        <v>INT8 EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
+        <v>INT8 EE_Settings[]={0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, };</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15309,16 +15309,17 @@
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="str">
+        <f>Settings!J9</f>
+        <v xml:space="preserve">4, </v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 1</v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, </v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15335,7 +15336,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, </v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -15352,7 +15353,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, </v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15369,7 +15370,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, </v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15386,7 +15387,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, </v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15403,7 +15404,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15420,7 +15421,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, </v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -15437,7 +15438,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, </v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -15454,7 +15455,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, </v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -15471,7 +15472,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -15488,7 +15489,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -15505,7 +15506,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, </v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -15514,7 +15515,7 @@
       </c>
       <c r="B23" t="str">
         <f>EVENTS!T1</f>
-        <v xml:space="preserve">0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">-1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -15522,7 +15523,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, </v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -15531,7 +15532,7 @@
       </c>
       <c r="B24" t="str">
         <f>STATES!AR162</f>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
       <c r="C24">
         <f>LEN(B24)-LEN(SUBSTITUTE(B24,",",""))</f>
@@ -15539,13 +15540,13 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 18, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, 0, 1, 0, 5, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">0x98, 0xFE, 1, 4, 1, 10, 20, 0xF6, 0xFF, 60, 40, 4, 8, 192, 8, 42, 5, 1, 128, 81, 1, 0, 5, 0xC5, 0x80, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x20, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 2, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 160, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, -1, -1, -1, -1, 1, 127, 10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>SUM(C4:C24)</f>
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -16074,8 +16075,8 @@
   </sheetPr>
   <dimension ref="A1:AR162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:P4"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16373,7 +16374,7 @@
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <f>States_Design!D5</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="11">
         <f>IF(IFERROR(HLOOKUP(C$2,States_Design!$4:5,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16453,11 +16454,11 @@
       </c>
       <c r="W3" s="11">
         <f>IF(IFERROR(HLOOKUP(F$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="11">
         <f>IF(IFERROR(HLOOKUP(G$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="11">
         <f>IF(IFERROR(HLOOKUP(H$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16465,11 +16466,11 @@
       </c>
       <c r="Z3" s="11">
         <f>IF(IFERROR(HLOOKUP(I$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="11">
         <f>IF(IFERROR(HLOOKUP(J$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="11">
         <f>IF(IFERROR(HLOOKUP(K$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16477,11 +16478,11 @@
       </c>
       <c r="AC3" s="11">
         <f>IF(IFERROR(HLOOKUP(L$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="11">
         <f>IF(IFERROR(HLOOKUP(M$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="11">
         <f>IF(IFERROR(HLOOKUP(N$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16489,11 +16490,11 @@
       </c>
       <c r="AF3" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="11">
         <f>IF(IFERROR(HLOOKUP(Q$2,States_Design!$4:5,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16513,25 +16514,25 @@
       </c>
       <c r="AN3" s="11" t="str">
         <f t="shared" ref="AN3:AN32" si="18">CONCATENATE("0x",BIN2HEX(CONCATENATE(T3,U3,V3,W3,X3,Y3,Z3,AA3),2))</f>
-        <v>0x09</v>
+        <v>0x12</v>
       </c>
       <c r="AO3" s="11" t="str">
         <f t="shared" ref="AO3:AO32" si="19">CONCATENATE("0x",BIN2HEX(CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3),2))</f>
-        <v>0x24</v>
+        <v>0x48</v>
       </c>
       <c r="AQ3" s="11" t="str">
         <f>CONCATENATE(A3,", ",AK3,", ",AL3,", ",AN3,", ",AO3,", ")</f>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, </v>
       </c>
       <c r="AR3" s="11" t="str">
         <f>CONCATENATE(AT2,AQ3)</f>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, </v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f>States_Design!D6</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11">
         <f>IF(IFERROR(HLOOKUP(C$2,States_Design!$4:6,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16607,7 +16608,7 @@
       </c>
       <c r="V4" s="11">
         <f>IF(IFERROR(HLOOKUP(E$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11">
         <f>IF(IFERROR(HLOOKUP(F$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16615,11 +16616,11 @@
       </c>
       <c r="X4" s="11">
         <f>IF(IFERROR(HLOOKUP(G$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="11">
         <f>IF(IFERROR(HLOOKUP(H$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="11">
         <f>IF(IFERROR(HLOOKUP(I$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16627,11 +16628,11 @@
       </c>
       <c r="AA4" s="11">
         <f>IF(IFERROR(HLOOKUP(J$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="11">
         <f>IF(IFERROR(HLOOKUP(K$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="11">
         <f>IF(IFERROR(HLOOKUP(L$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16639,11 +16640,11 @@
       </c>
       <c r="AD4" s="11">
         <f>IF(IFERROR(HLOOKUP(M$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="11">
         <f>IF(IFERROR(HLOOKUP(N$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16651,7 +16652,7 @@
       </c>
       <c r="AG4" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="11">
         <f>IF(IFERROR(HLOOKUP(Q$2,States_Design!$4:6,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16671,25 +16672,25 @@
       </c>
       <c r="AN4" s="11" t="str">
         <f t="shared" si="18"/>
-        <v>0x24</v>
+        <v>0x09</v>
       </c>
       <c r="AO4" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>0x90</v>
+        <v>0x24</v>
       </c>
       <c r="AQ4" s="11" t="str">
         <f t="shared" ref="AQ4:AQ67" si="20">CONCATENATE(A4,", ",AK4,", ",AL4,", ",AN4,", ",AO4,", ")</f>
-        <v xml:space="preserve">6, 0x12, 0x48, 0x24, 0x90, </v>
+        <v xml:space="preserve">10, 0x12, 0x48, 0x09, 0x24, </v>
       </c>
       <c r="AR4" s="11" t="str">
         <f t="shared" ref="AR4:AR32" si="21">CONCATENATE(AR3,AQ4)</f>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, </v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f>States_Design!D7</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="11">
         <f>IF(IFERROR(HLOOKUP(C$2,States_Design!$4:7,ROW()-1,FALSE),0)=1,1,0)</f>
@@ -16765,11 +16766,11 @@
       </c>
       <c r="V5" s="11">
         <f>IF(IFERROR(HLOOKUP(E$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="11">
         <f>IF(IFERROR(HLOOKUP(F$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="11">
         <f>IF(IFERROR(HLOOKUP(G$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16777,11 +16778,11 @@
       </c>
       <c r="Y5" s="11">
         <f>IF(IFERROR(HLOOKUP(H$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="11">
         <f>IF(IFERROR(HLOOKUP(I$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="11">
         <f>IF(IFERROR(HLOOKUP(J$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16789,11 +16790,11 @@
       </c>
       <c r="AB5" s="11">
         <f>IF(IFERROR(HLOOKUP(K$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="11">
         <f>IF(IFERROR(HLOOKUP(L$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="11">
         <f>IF(IFERROR(HLOOKUP(M$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16801,11 +16802,11 @@
       </c>
       <c r="AE5" s="11">
         <f>IF(IFERROR(HLOOKUP(N$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="11">
         <f>IF(IFERROR(HLOOKUP(O$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="11">
         <f>IF(IFERROR(HLOOKUP(P$2,States_Design!$4:7,ROW()-1,FALSE),0)=2,1,0)</f>
@@ -16829,19 +16830,19 @@
       </c>
       <c r="AN5" s="11" t="str">
         <f t="shared" si="18"/>
-        <v>0x12</v>
+        <v>0x24</v>
       </c>
       <c r="AO5" s="11" t="str">
         <f t="shared" si="19"/>
-        <v>0x48</v>
+        <v>0x90</v>
       </c>
       <c r="AQ5" s="11" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">6, 0x09, 0x24, 0x12, 0x48, </v>
+        <v xml:space="preserve">10, 0x09, 0x24, 0x24, 0x90, </v>
       </c>
       <c r="AR5" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, </v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -16999,7 +17000,7 @@
       </c>
       <c r="AR6" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, </v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -17157,7 +17158,7 @@
       </c>
       <c r="AR7" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -17315,7 +17316,7 @@
       </c>
       <c r="AR8" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -17473,7 +17474,7 @@
       </c>
       <c r="AR9" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, </v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -17631,7 +17632,7 @@
       </c>
       <c r="AR10" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -17789,7 +17790,7 @@
       </c>
       <c r="AR11" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, </v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -17947,7 +17948,7 @@
       </c>
       <c r="AR12" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -18105,7 +18106,7 @@
       </c>
       <c r="AR13" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -18263,7 +18264,7 @@
       </c>
       <c r="AR14" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -18421,7 +18422,7 @@
       </c>
       <c r="AR15" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -18579,7 +18580,7 @@
       </c>
       <c r="AR16" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -18737,7 +18738,7 @@
       </c>
       <c r="AR17" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
@@ -18895,7 +18896,7 @@
       </c>
       <c r="AR18" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
@@ -19053,7 +19054,7 @@
       </c>
       <c r="AR19" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
@@ -19211,7 +19212,7 @@
       </c>
       <c r="AR20" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
@@ -19369,7 +19370,7 @@
       </c>
       <c r="AR21" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
@@ -19527,7 +19528,7 @@
       </c>
       <c r="AR22" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
@@ -19685,7 +19686,7 @@
       </c>
       <c r="AR23" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
@@ -19843,7 +19844,7 @@
       </c>
       <c r="AR24" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
@@ -20001,7 +20002,7 @@
       </c>
       <c r="AR25" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -20159,7 +20160,7 @@
       </c>
       <c r="AR26" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
@@ -20317,7 +20318,7 @@
       </c>
       <c r="AR27" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
@@ -20475,7 +20476,7 @@
       </c>
       <c r="AR28" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
@@ -20633,7 +20634,7 @@
       </c>
       <c r="AR29" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
@@ -20791,7 +20792,7 @@
       </c>
       <c r="AR30" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
@@ -20949,7 +20950,7 @@
       </c>
       <c r="AR31" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
@@ -21107,7 +21108,7 @@
       </c>
       <c r="AR32" s="11" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
@@ -21265,7 +21266,7 @@
       </c>
       <c r="AR33" s="11" t="str">
         <f t="shared" ref="AR33:AR96" si="26">CONCATENATE(AR32,AQ33)</f>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
@@ -21423,7 +21424,7 @@
       </c>
       <c r="AR34" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
@@ -21581,7 +21582,7 @@
       </c>
       <c r="AR35" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
@@ -21739,7 +21740,7 @@
       </c>
       <c r="AR36" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
@@ -21897,7 +21898,7 @@
       </c>
       <c r="AR37" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
@@ -22055,7 +22056,7 @@
       </c>
       <c r="AR38" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
@@ -22213,7 +22214,7 @@
       </c>
       <c r="AR39" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
@@ -22371,7 +22372,7 @@
       </c>
       <c r="AR40" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
@@ -22529,7 +22530,7 @@
       </c>
       <c r="AR41" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
@@ -22687,7 +22688,7 @@
       </c>
       <c r="AR42" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
@@ -22845,7 +22846,7 @@
       </c>
       <c r="AR43" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
@@ -23003,7 +23004,7 @@
       </c>
       <c r="AR44" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
@@ -23161,7 +23162,7 @@
       </c>
       <c r="AR45" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
@@ -23319,7 +23320,7 @@
       </c>
       <c r="AR46" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
@@ -23477,7 +23478,7 @@
       </c>
       <c r="AR47" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
@@ -23635,7 +23636,7 @@
       </c>
       <c r="AR48" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
@@ -23793,7 +23794,7 @@
       </c>
       <c r="AR49" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
@@ -23951,7 +23952,7 @@
       </c>
       <c r="AR50" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
@@ -24109,7 +24110,7 @@
       </c>
       <c r="AR51" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
@@ -24267,7 +24268,7 @@
       </c>
       <c r="AR52" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
@@ -24425,7 +24426,7 @@
       </c>
       <c r="AR53" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
@@ -24583,7 +24584,7 @@
       </c>
       <c r="AR54" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
@@ -24741,7 +24742,7 @@
       </c>
       <c r="AR55" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
@@ -24899,7 +24900,7 @@
       </c>
       <c r="AR56" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
@@ -25057,7 +25058,7 @@
       </c>
       <c r="AR57" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
@@ -25215,7 +25216,7 @@
       </c>
       <c r="AR58" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
@@ -25373,7 +25374,7 @@
       </c>
       <c r="AR59" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
@@ -25531,7 +25532,7 @@
       </c>
       <c r="AR60" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
@@ -25689,7 +25690,7 @@
       </c>
       <c r="AR61" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
@@ -25847,7 +25848,7 @@
       </c>
       <c r="AR62" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
@@ -26005,7 +26006,7 @@
       </c>
       <c r="AR63" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
@@ -26163,7 +26164,7 @@
       </c>
       <c r="AR64" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
@@ -26321,7 +26322,7 @@
       </c>
       <c r="AR65" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
@@ -26479,7 +26480,7 @@
       </c>
       <c r="AR66" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
@@ -26637,7 +26638,7 @@
       </c>
       <c r="AR67" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
@@ -26795,7 +26796,7 @@
       </c>
       <c r="AR68" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
@@ -26953,7 +26954,7 @@
       </c>
       <c r="AR69" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
@@ -27111,7 +27112,7 @@
       </c>
       <c r="AR70" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
@@ -27269,7 +27270,7 @@
       </c>
       <c r="AR71" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
@@ -27427,7 +27428,7 @@
       </c>
       <c r="AR72" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
@@ -27585,7 +27586,7 @@
       </c>
       <c r="AR73" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
@@ -27743,7 +27744,7 @@
       </c>
       <c r="AR74" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
@@ -27901,7 +27902,7 @@
       </c>
       <c r="AR75" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
@@ -28059,7 +28060,7 @@
       </c>
       <c r="AR76" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
@@ -28217,7 +28218,7 @@
       </c>
       <c r="AR77" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
@@ -28375,7 +28376,7 @@
       </c>
       <c r="AR78" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
@@ -28533,7 +28534,7 @@
       </c>
       <c r="AR79" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
@@ -28691,7 +28692,7 @@
       </c>
       <c r="AR80" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
@@ -28849,7 +28850,7 @@
       </c>
       <c r="AR81" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
@@ -29007,7 +29008,7 @@
       </c>
       <c r="AR82" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
@@ -29165,7 +29166,7 @@
       </c>
       <c r="AR83" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
@@ -29323,7 +29324,7 @@
       </c>
       <c r="AR84" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
@@ -29481,7 +29482,7 @@
       </c>
       <c r="AR85" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
@@ -29639,7 +29640,7 @@
       </c>
       <c r="AR86" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
@@ -29797,7 +29798,7 @@
       </c>
       <c r="AR87" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
@@ -29955,7 +29956,7 @@
       </c>
       <c r="AR88" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
@@ -30113,7 +30114,7 @@
       </c>
       <c r="AR89" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
@@ -30271,7 +30272,7 @@
       </c>
       <c r="AR90" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
@@ -30429,7 +30430,7 @@
       </c>
       <c r="AR91" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
@@ -30587,7 +30588,7 @@
       </c>
       <c r="AR92" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
@@ -30745,7 +30746,7 @@
       </c>
       <c r="AR93" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
@@ -30903,7 +30904,7 @@
       </c>
       <c r="AR94" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
@@ -31061,7 +31062,7 @@
       </c>
       <c r="AR95" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
@@ -31219,7 +31220,7 @@
       </c>
       <c r="AR96" s="11" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
@@ -31377,7 +31378,7 @@
       </c>
       <c r="AR97" s="11" t="str">
         <f t="shared" ref="AR97:AR160" si="32">CONCATENATE(AR96,AQ97)</f>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
@@ -31535,7 +31536,7 @@
       </c>
       <c r="AR98" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.25">
@@ -31693,7 +31694,7 @@
       </c>
       <c r="AR99" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.25">
@@ -31851,7 +31852,7 @@
       </c>
       <c r="AR100" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
@@ -32009,7 +32010,7 @@
       </c>
       <c r="AR101" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.25">
@@ -32167,7 +32168,7 @@
       </c>
       <c r="AR102" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
@@ -32325,7 +32326,7 @@
       </c>
       <c r="AR103" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.25">
@@ -32483,7 +32484,7 @@
       </c>
       <c r="AR104" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.25">
@@ -32641,7 +32642,7 @@
       </c>
       <c r="AR105" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.25">
@@ -32799,7 +32800,7 @@
       </c>
       <c r="AR106" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
@@ -32957,7 +32958,7 @@
       </c>
       <c r="AR107" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.25">
@@ -33115,7 +33116,7 @@
       </c>
       <c r="AR108" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.25">
@@ -33273,7 +33274,7 @@
       </c>
       <c r="AR109" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
@@ -33431,7 +33432,7 @@
       </c>
       <c r="AR110" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
@@ -33589,7 +33590,7 @@
       </c>
       <c r="AR111" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
@@ -33747,7 +33748,7 @@
       </c>
       <c r="AR112" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.25">
@@ -33905,7 +33906,7 @@
       </c>
       <c r="AR113" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
@@ -34063,7 +34064,7 @@
       </c>
       <c r="AR114" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
@@ -34221,7 +34222,7 @@
       </c>
       <c r="AR115" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="116" spans="1:44" x14ac:dyDescent="0.25">
@@ -34379,7 +34380,7 @@
       </c>
       <c r="AR116" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="117" spans="1:44" x14ac:dyDescent="0.25">
@@ -34537,7 +34538,7 @@
       </c>
       <c r="AR117" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="118" spans="1:44" x14ac:dyDescent="0.25">
@@ -34695,7 +34696,7 @@
       </c>
       <c r="AR118" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="119" spans="1:44" x14ac:dyDescent="0.25">
@@ -34853,7 +34854,7 @@
       </c>
       <c r="AR119" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
@@ -35011,7 +35012,7 @@
       </c>
       <c r="AR120" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
@@ -35169,7 +35170,7 @@
       </c>
       <c r="AR121" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="122" spans="1:44" x14ac:dyDescent="0.25">
@@ -35327,7 +35328,7 @@
       </c>
       <c r="AR122" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
@@ -35485,7 +35486,7 @@
       </c>
       <c r="AR123" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="124" spans="1:44" x14ac:dyDescent="0.25">
@@ -35643,7 +35644,7 @@
       </c>
       <c r="AR124" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="125" spans="1:44" x14ac:dyDescent="0.25">
@@ -35801,7 +35802,7 @@
       </c>
       <c r="AR125" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="126" spans="1:44" x14ac:dyDescent="0.25">
@@ -35959,7 +35960,7 @@
       </c>
       <c r="AR126" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="127" spans="1:44" x14ac:dyDescent="0.25">
@@ -36117,7 +36118,7 @@
       </c>
       <c r="AR127" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="128" spans="1:44" x14ac:dyDescent="0.25">
@@ -36275,7 +36276,7 @@
       </c>
       <c r="AR128" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="129" spans="1:44" x14ac:dyDescent="0.25">
@@ -36433,7 +36434,7 @@
       </c>
       <c r="AR129" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="130" spans="1:44" x14ac:dyDescent="0.25">
@@ -36591,7 +36592,7 @@
       </c>
       <c r="AR130" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="131" spans="1:44" x14ac:dyDescent="0.25">
@@ -36749,7 +36750,7 @@
       </c>
       <c r="AR131" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="132" spans="1:44" x14ac:dyDescent="0.25">
@@ -36907,7 +36908,7 @@
       </c>
       <c r="AR132" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="133" spans="1:44" x14ac:dyDescent="0.25">
@@ -37065,7 +37066,7 @@
       </c>
       <c r="AR133" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="134" spans="1:44" x14ac:dyDescent="0.25">
@@ -37223,7 +37224,7 @@
       </c>
       <c r="AR134" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="135" spans="1:44" x14ac:dyDescent="0.25">
@@ -37381,7 +37382,7 @@
       </c>
       <c r="AR135" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="136" spans="1:44" x14ac:dyDescent="0.25">
@@ -37539,7 +37540,7 @@
       </c>
       <c r="AR136" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="137" spans="1:44" x14ac:dyDescent="0.25">
@@ -37697,7 +37698,7 @@
       </c>
       <c r="AR137" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
@@ -37855,7 +37856,7 @@
       </c>
       <c r="AR138" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="139" spans="1:44" x14ac:dyDescent="0.25">
@@ -38013,7 +38014,7 @@
       </c>
       <c r="AR139" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
@@ -38171,7 +38172,7 @@
       </c>
       <c r="AR140" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="141" spans="1:44" x14ac:dyDescent="0.25">
@@ -38329,7 +38330,7 @@
       </c>
       <c r="AR141" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="142" spans="1:44" x14ac:dyDescent="0.25">
@@ -38487,7 +38488,7 @@
       </c>
       <c r="AR142" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="143" spans="1:44" x14ac:dyDescent="0.25">
@@ -38645,7 +38646,7 @@
       </c>
       <c r="AR143" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="144" spans="1:44" x14ac:dyDescent="0.25">
@@ -38803,7 +38804,7 @@
       </c>
       <c r="AR144" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
@@ -38961,7 +38962,7 @@
       </c>
       <c r="AR145" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="146" spans="1:44" x14ac:dyDescent="0.25">
@@ -39119,7 +39120,7 @@
       </c>
       <c r="AR146" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
@@ -39277,7 +39278,7 @@
       </c>
       <c r="AR147" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
@@ -39435,7 +39436,7 @@
       </c>
       <c r="AR148" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="149" spans="1:44" x14ac:dyDescent="0.25">
@@ -39593,7 +39594,7 @@
       </c>
       <c r="AR149" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.25">
@@ -39751,7 +39752,7 @@
       </c>
       <c r="AR150" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="151" spans="1:44" x14ac:dyDescent="0.25">
@@ -39909,7 +39910,7 @@
       </c>
       <c r="AR151" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="152" spans="1:44" x14ac:dyDescent="0.25">
@@ -40067,7 +40068,7 @@
       </c>
       <c r="AR152" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="153" spans="1:44" x14ac:dyDescent="0.25">
@@ -40225,7 +40226,7 @@
       </c>
       <c r="AR153" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="154" spans="1:44" x14ac:dyDescent="0.25">
@@ -40383,7 +40384,7 @@
       </c>
       <c r="AR154" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="155" spans="1:44" x14ac:dyDescent="0.25">
@@ -40541,7 +40542,7 @@
       </c>
       <c r="AR155" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="156" spans="1:44" x14ac:dyDescent="0.25">
@@ -40699,7 +40700,7 @@
       </c>
       <c r="AR156" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="157" spans="1:44" x14ac:dyDescent="0.25">
@@ -40857,7 +40858,7 @@
       </c>
       <c r="AR157" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="158" spans="1:44" x14ac:dyDescent="0.25">
@@ -41015,7 +41016,7 @@
       </c>
       <c r="AR158" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="159" spans="1:44" x14ac:dyDescent="0.25">
@@ -41173,7 +41174,7 @@
       </c>
       <c r="AR159" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="160" spans="1:44" x14ac:dyDescent="0.25">
@@ -41331,7 +41332,7 @@
       </c>
       <c r="AR160" s="11" t="str">
         <f t="shared" si="32"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="161" spans="1:44" x14ac:dyDescent="0.25">
@@ -41489,7 +41490,7 @@
       </c>
       <c r="AR161" s="11" t="str">
         <f t="shared" ref="AR161:AR162" si="38">CONCATENATE(AR160,AQ161)</f>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
     <row r="162" spans="1:44" x14ac:dyDescent="0.25">
@@ -41647,7 +41648,7 @@
       </c>
       <c r="AR162" s="11" t="str">
         <f t="shared" si="38"/>
-        <v xml:space="preserve">6, 0x24, 0x90, 0x09, 0x24, 6, 0x12, 0x48, 0x24, 0x90, 6, 0x09, 0x24, 0x12, 0x48, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
+        <v xml:space="preserve">10, 0x24, 0x90, 0x12, 0x48, 10, 0x12, 0x48, 0x09, 0x24, 10, 0x09, 0x24, 0x24, 0x90, 3, 0x04, 0x90, 0x08, 0x00, 2, 0x14, 0x90, 0x00, 0x00, 21, 0x24, 0x24, 0x00, 0x00, 2, 0x24, 0x10, 0x00, 0x20, 2, 0x24, 0x50, 0x00, 0x00, 1, 0x00, 0x00, 0x14, 0x20, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, 0, 0x00, 0x00, 0x00, 0x00, </v>
       </c>
     </row>
   </sheetData>

--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesign" sheetId="3" r:id="rId1"/>
@@ -334,9 +334,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd/mmmm;@"/>
-    <numFmt numFmtId="167" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd/mmmm;@"/>
+    <numFmt numFmtId="166" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -442,10 +442,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10176,8 +10176,8 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11874,17 +11874,20 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>89</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v xml:space="preserve">0x98, 0xFE, </v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -11946,8 +11949,20 @@
         <f>CONCATENATE(E3,", ",F3,", ")</f>
         <v xml:space="preserve">1, 4, </v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f>DEC2HEX(E3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:M3" si="0">DEC2HEX(F3)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -11966,8 +11981,20 @@
         <f>CONCATENATE(E4,", ",F4,", ")</f>
         <v xml:space="preserve">1, 10, </v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K17" si="1">DEC2HEX(E4)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L17" si="2">DEC2HEX(F4)</f>
+        <v>A</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M17" si="3">DEC2HEX(G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -11982,8 +12009,20 @@
         <f>CONCATENATE(E5,", ")</f>
         <v xml:space="preserve">20, </v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -12013,8 +12052,20 @@
         <f>CONCATENATE("0x",RIGHT(I6,2),", 0x",LEFT(I6,2),", ")</f>
         <v xml:space="preserve">0xF6, 0xFF, </v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>F6</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>FFFFFFFFFF</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -12032,8 +12083,20 @@
         <f>CONCATENATE(E7,", ")</f>
         <v xml:space="preserve">60, </v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>3C</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -12048,11 +12111,23 @@
         <v>40</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J15" si="0">CONCATENATE(E8,", ")</f>
+        <f t="shared" ref="J8:J15" si="4">CONCATENATE(E8,", ")</f>
         <v xml:space="preserve">40, </v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -12067,11 +12142,23 @@
         <v>4</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">4, </v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -12086,11 +12173,23 @@
         <v>8</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">8, </v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -12105,11 +12204,23 @@
         <v>192</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">192, </v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>C0</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -12121,11 +12232,23 @@
         <v>8</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">8, </v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -12137,11 +12260,23 @@
         <v>42</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">42, </v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>2A</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -12156,11 +12291,23 @@
         <v>5</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">5, </v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -12172,11 +12319,23 @@
         <v>1</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">1, </v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -12199,8 +12358,20 @@
         <f>CONCATENATE(G16,", ",F16,", ",E16,", ")</f>
         <v xml:space="preserve">128, 81, 1, </v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -12218,6 +12389,18 @@
       <c r="J17" t="str">
         <f>CONCATENATE(F17,", ",E17,", ")</f>
         <v xml:space="preserve">0, 5, </v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12233,8 +12416,8 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12673,7 +12856,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
+++ b/ES/ITL/Algorithm/PopulateSystemVariablesV004.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDesign" sheetId="3" r:id="rId1"/>
@@ -38693,8 +38693,8 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40808,10 +40808,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40821,27 +40821,27 @@
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>93</v>
       </c>
       <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>102</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>105</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>103</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -40875,23 +40875,15 @@
         <f>CONCATENATE("0x",RIGHT(I2,2),", 0x",LEFT(I2,2),", ")</f>
         <v xml:space="preserve">0x7A, 0xFE, </v>
       </c>
-      <c r="K2" t="str">
-        <f>DEC2HEX(E2)</f>
-        <v>6</v>
-      </c>
-      <c r="L2" t="str">
-        <f>DEC2HEX(F2)</f>
-        <v>1E</v>
-      </c>
-      <c r="M2">
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="N2">
-        <f>+M2-1</f>
+      <c r="O2">
+        <f>+N2-1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -40910,15 +40902,23 @@
         <f>CONCATENATE(E3,", ",F3,", ")</f>
         <v xml:space="preserve">1, 4, </v>
       </c>
-      <c r="M3">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K17" si="0">DEC2HEX(E3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:M17" si="1">DEC2HEX(F3)</f>
+        <v>4</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <f>M3+N2</f>
+      <c r="O3">
+        <f>N3+O2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -40937,15 +40937,23 @@
         <f>CONCATENATE(E4,", ",F4,", ")</f>
         <v xml:space="preserve">1, 10, </v>
       </c>
-      <c r="M4">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N17" si="0">M4+N3</f>
+      <c r="O4">
+        <f t="shared" ref="O4:O17" si="2">N4+O3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -40960,15 +40968,23 @@
         <f>CONCATENATE(E5,", ")</f>
         <v xml:space="preserve">20, </v>
       </c>
-      <c r="M5">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -40998,15 +41014,15 @@
         <f>CONCATENATE("0x",RIGHT(I6,2),", 0x",LEFT(I6,2),", ")</f>
         <v xml:space="preserve">0xF6, 0xFF, </v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
+      <c r="O6">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -41024,15 +41040,23 @@
         <f>CONCATENATE(E7,", ")</f>
         <v xml:space="preserve">60, </v>
       </c>
-      <c r="M7">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
+      <c r="O7">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -41047,18 +41071,26 @@
         <v>40</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8:J16" si="1">CONCATENATE(E8,", ")</f>
+        <f t="shared" ref="J8:J16" si="3">CONCATENATE(E8,", ")</f>
         <v xml:space="preserve">40, </v>
       </c>
-      <c r="M8">
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
+      <c r="O8">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -41073,18 +41105,26 @@
         <v>4</v>
       </c>
       <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">4, </v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">4, </v>
-      </c>
-      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
+      <c r="O9">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -41099,18 +41139,26 @@
         <v>8</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">8, </v>
-      </c>
-      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
+      <c r="O10">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -41125,18 +41173,26 @@
         <v>192</v>
       </c>
       <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">192, </v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>C0</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">192, </v>
-      </c>
-      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
+      <c r="O11">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -41148,18 +41204,26 @@
         <v>8</v>
       </c>
       <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">8, </v>
-      </c>
-      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
+      <c r="O12">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -41171,18 +41235,26 @@
         <v>42</v>
       </c>
       <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">42, </v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">42, </v>
-      </c>
-      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
+      <c r="O13">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -41197,18 +41269,26 @@
         <v>5</v>
       </c>
       <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">5, </v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">5, </v>
-      </c>
-      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
+      <c r="O14">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -41231,15 +41311,27 @@
         <f>CONCATENATE(G15,", ",F15,", ",E15,", ")</f>
         <v xml:space="preserve">128, 81, 1, </v>
       </c>
-      <c r="M15">
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -41251,18 +41343,26 @@
         <v>1</v>
       </c>
       <c r="J16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">1, </v>
-      </c>
-      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
+      <c r="O16">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -41281,11 +41381,19 @@
         <f>CONCATENATE(F17,", ",E17,", ")</f>
         <v xml:space="preserve">0, 5, </v>
       </c>
-      <c r="M17">
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
+      <c r="O17">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
